--- a/front_end/01 Create Budgets.xlsx_20210525012237.xlsx
+++ b/front_end/01 Create Budgets.xlsx_20210525012237.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Excelerated\64. DSS\06. Front Ends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C330B-055F-45EC-9963-CBDC4B4718DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD24DF-90A6-4612-A4F8-42006B88B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="tm1VerMgtSHEET">Sheet1!$I$25</definedName>
     <definedName name="tm1Year">Sheet1!$D$34</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1177,7 +1177,7 @@
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_Version" ax:value="65541"/>
-  <ax:ocxPr ax:name="_ExtentX" ax:value="1852"/>
+  <ax:ocxPr ax:name="_ExtentX" ax:value="4657"/>
   <ax:ocxPr ax:name="_ExtentY" ax:value="926"/>
   <ax:ocxPr ax:name="_StockProps" ax:value="0"/>
   <ax:ocxPr ax:name="ServerName" ax:value="=TM1db"/>
@@ -1212,18 +1212,18 @@
   <ax:ocxPr ax:name="ShowConfirmMessage" ax:value="0"/>
   <ax:ocxPr ax:name="ShowSuccessMessage" ax:value="0"/>
   <ax:ocxPr ax:name="ShowFailureMessage" ax:value="0"/>
-  <ax:ocxPr ax:name="TargetWorkbookName" ax:value="=tm1FLMMenuBOOK"/>
-  <ax:ocxPr ax:name="TargetWorksheetName" ax:value="=tm1FLMMenuSHEET"/>
-  <ax:ocxPr ax:name="AutoTitles" ax:value="0"/>
+  <ax:ocxPr ax:name="TargetWorkbookName" ax:value="=tm1VerMgtBOOK"/>
+  <ax:ocxPr ax:name="TargetWorksheetName" ax:value="=tm1VerMgtSHEET"/>
+  <ax:ocxPr ax:name="AutoTitles" ax:value="-1"/>
   <ax:ocxPr ax:name="ReplaceWindow" ax:value="-1"/>
   <ax:ocxPr ax:name="IsMappingFormula" ax:value="0"/>
-  <ax:ocxPr ax:name="TargetTypes" ax:value=""/>
-  <ax:ocxPr ax:name="TargetObjects" ax:value=""/>
+  <ax:ocxPr ax:name="TargetTypes" ax:value="0"/>
+  <ax:ocxPr ax:name="TargetObjects" ax:value="Lease Number"/>
   <ax:ocxPr ax:name="TargetSubsets" ax:value=""/>
   <ax:ocxPr ax:name="TargetAliases" ax:value=""/>
   <ax:ocxPr ax:name="TargetValues" ax:value=""/>
-  <ax:ocxPr ax:name="SourceTypes" ax:value=""/>
-  <ax:ocxPr ax:name="SourceObjects" ax:value=""/>
+  <ax:ocxPr ax:name="SourceTypes" ax:value="0"/>
+  <ax:ocxPr ax:name="SourceObjects" ax:value="Lease Number"/>
   <ax:ocxPr ax:name="TargetTypesFormula" ax:value=""/>
   <ax:ocxPr ax:name="TargetObjectsFormula" ax:value=""/>
   <ax:ocxPr ax:name="TargetSubsetsFormula" ax:value=""/>
@@ -1246,18 +1246,6 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_Version" ax:value="65541"/>
   <ax:ocxPr ax:name="_ExtentX" ax:value="4577"/>
@@ -1328,11 +1316,23 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{CF3B4A6E-56A4-403F-8D4F-F4B0F022BF01}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_Version" ax:value="65541"/>
-  <ax:ocxPr ax:name="_ExtentX" ax:value="4657"/>
-  <ax:ocxPr ax:name="_ExtentY" ax:value="926"/>
+  <ax:ocxPr ax:name="_ExtentX" ax:value="1588"/>
+  <ax:ocxPr ax:name="_ExtentY" ax:value="1032"/>
   <ax:ocxPr ax:name="_StockProps" ax:value="0"/>
   <ax:ocxPr ax:name="ServerName" ax:value="=TM1db"/>
   <ax:ocxPr ax:name="ProcessName" ax:value="cm_Update Reporting - Part 1"/>
@@ -1366,18 +1366,18 @@
   <ax:ocxPr ax:name="ShowConfirmMessage" ax:value="0"/>
   <ax:ocxPr ax:name="ShowSuccessMessage" ax:value="0"/>
   <ax:ocxPr ax:name="ShowFailureMessage" ax:value="0"/>
-  <ax:ocxPr ax:name="TargetWorkbookName" ax:value="=tm1VerMgtBOOK"/>
-  <ax:ocxPr ax:name="TargetWorksheetName" ax:value="=tm1VerMgtSHEET"/>
-  <ax:ocxPr ax:name="AutoTitles" ax:value="-1"/>
+  <ax:ocxPr ax:name="TargetWorkbookName" ax:value="=tm1FLMMenuBOOK"/>
+  <ax:ocxPr ax:name="TargetWorksheetName" ax:value="=tm1FLMMenuSHEET"/>
+  <ax:ocxPr ax:name="AutoTitles" ax:value="0"/>
   <ax:ocxPr ax:name="ReplaceWindow" ax:value="-1"/>
   <ax:ocxPr ax:name="IsMappingFormula" ax:value="0"/>
-  <ax:ocxPr ax:name="TargetTypes" ax:value="0"/>
-  <ax:ocxPr ax:name="TargetObjects" ax:value="Lease Number"/>
+  <ax:ocxPr ax:name="TargetTypes" ax:value=""/>
+  <ax:ocxPr ax:name="TargetObjects" ax:value=""/>
   <ax:ocxPr ax:name="TargetSubsets" ax:value=""/>
   <ax:ocxPr ax:name="TargetAliases" ax:value=""/>
   <ax:ocxPr ax:name="TargetValues" ax:value=""/>
-  <ax:ocxPr ax:name="SourceTypes" ax:value="0"/>
-  <ax:ocxPr ax:name="SourceObjects" ax:value="Lease Number"/>
+  <ax:ocxPr ax:name="SourceTypes" ax:value=""/>
+  <ax:ocxPr ax:name="SourceObjects" ax:value=""/>
   <ax:ocxPr ax:name="TargetTypesFormula" ax:value=""/>
   <ax:ocxPr ax:name="TargetObjectsFormula" ax:value=""/>
   <ax:ocxPr ax:name="TargetSubsetsFormula" ax:value=""/>
@@ -1594,13 +1594,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>915489</xdr:rowOff>
+      <xdr:rowOff>944064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1598696</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1615,8 +1615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="1105989"/>
-          <a:ext cx="15335250" cy="683207"/>
+          <a:off x="161925" y="5477964"/>
+          <a:ext cx="17306925" cy="683207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,19 +1878,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>81204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>525186</xdr:colOff>
+      <xdr:colOff>553761</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>424692</xdr:rowOff>
+      <xdr:rowOff>401121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="tm1VerMgtCAPTION">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
+        <xdr:cNvPr id="8" name="tm1ver">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
@@ -1901,7 +1901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10048876" y="295275"/>
+          <a:off x="11572876" y="4615104"/>
           <a:ext cx="1611035" cy="319917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1947,7 +1947,7 @@
               <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>*KEY_ERR</a:t>
+            <a:t>#NAME?</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1100">
             <a:solidFill>
@@ -1987,7 +1987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="332032" y="1162050"/>
+          <a:off x="1827457" y="5505450"/>
           <a:ext cx="1431035" cy="328082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2040,13 +2040,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1666875</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>962025</xdr:rowOff>
+      <xdr:rowOff>971550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>602361</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1290107</xdr:rowOff>
+      <xdr:rowOff>1299632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2061,7 +2061,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1152525"/>
+          <a:off x="3324225" y="5505450"/>
           <a:ext cx="1431036" cy="328082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2112,13 +2112,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>828676</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>492580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>134661</xdr:colOff>
+      <xdr:colOff>106085</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>812497</xdr:rowOff>
     </xdr:to>
@@ -2135,7 +2135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362951" y="683080"/>
+          <a:off x="9829800" y="5026480"/>
           <a:ext cx="1611035" cy="319917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2181,7 +2181,7 @@
               <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>*KEY_ERR</a:t>
+            <a:t>#NAME?</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1100">
             <a:solidFill>
@@ -2262,15 +2262,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>247649</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>581025</xdr:rowOff>
+          <xdr:rowOff>619124</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2379,13 +2379,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>107850</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>402922</xdr:rowOff>
+      <xdr:rowOff>401362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="tm1CreateBudgetsCAPTION">
       <xdr:nvSpPr>
@@ -2400,8 +2400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="276225"/>
-          <a:ext cx="1685924" cy="317197"/>
+          <a:off x="9829800" y="4614862"/>
+          <a:ext cx="1612800" cy="320400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2446,7 +2446,7 @@
               <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>*KEY_ERR</a:t>
+            <a:t>#NAME?</a:t>
           </a:fld>
           <a:endParaRPr lang="en-AU" sz="1100" b="0">
             <a:solidFill>
@@ -2465,15 +2465,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>809624</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>504824</xdr:rowOff>
+          <xdr:rowOff>495300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152399</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>838199</xdr:rowOff>
+          <xdr:rowOff>828675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2529,13 +2529,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>114299</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>600075</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>447674</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2589,15 +2589,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>971550</xdr:rowOff>
+          <xdr:rowOff>914400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1590675</xdr:colOff>
+          <xdr:colOff>1628775</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>1285875</xdr:rowOff>
+          <xdr:rowOff>1333500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2651,15 +2651,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:colOff>1666875</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>942974</xdr:rowOff>
+          <xdr:rowOff>923925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>1333499</xdr:rowOff>
+          <xdr:rowOff>1314450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3019,9 +3019,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A30" sqref="A30"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3169,17 +3167,17 @@
       <c r="C9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="22" t="e">
         <f ca="1">_xll.VIEW(TM1db &amp; ":flm_Finance Lease Details","!","!","!")</f>
-        <v>dss_leasing:flm_Finance Lease Details</v>
+        <v>#NAME?</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="4" t="e">
         <f ca="1">_xll.TM1USER(TM1db)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="30" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3188,9 +3186,9 @@
       <c r="C10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="22" t="str">
+      <c r="D10" s="22" t="e">
         <f t="array" aca="1" ref="D10" ca="1">_xll.VIEW(TM1db&amp;":flm_Finance Lease Commitments",tm1Year,tm1Variation,$C$29,$C$25,$C$27,"!",tm1LeaseNumber,"!","!")</f>
-        <v>dss_leasing:flm_Finance Lease Commitments</v>
+        <v>#NAME?</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="3" t="s">
@@ -3224,9 +3222,9 @@
       <c r="C12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="22" t="e">
         <f ca="1">_xll.VIEW(TM1db&amp;":sys_Application","!","!")</f>
-        <v>dss_leasing:sys_Application</v>
+        <v>#NAME?</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="3" t="s">
@@ -3242,9 +3240,9 @@
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="22" t="e">
         <f ca="1">_xll.VIEW(TM1db&amp;":sys_Client Preferences",$G$9,"!")</f>
-        <v>dss_leasing:sys_Client Preferences</v>
+        <v>#NAME?</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="52" t="s">
@@ -3260,9 +3258,9 @@
       <c r="C14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="24" t="str">
+      <c r="D14" s="24" t="e">
         <f ca="1">_xll.TM1RPTVIEW(TM1db&amp;":flm_Finance Lease Details:2", 1, TM1RPTFMTRNG,TM1RPTFMTIDCOL)</f>
-        <v>dss_leasing:flm_Finance Lease Details:2</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="30" customFormat="1" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3283,13 +3281,13 @@
       <c r="C17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="41" t="e">
         <f ca="1">tm1LeaseNumber</f>
-        <v/>
-      </c>
-      <c r="F17" s="38" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F17" s="38" t="e">
         <f ca="1">"{TM1FILTERBYLEVEL({TM1DRILLDOWNMEMBER({[Lease Number].["&amp;$E17&amp;"]},ALL,RECURSIVE)},0)}"</f>
-        <v>{TM1FILTERBYLEVEL({TM1DRILLDOWNMEMBER({[Lease Number].[]},ALL,RECURSIVE)},0)}</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="30" customFormat="1" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3298,13 +3296,13 @@
       <c r="C18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="40" t="e">
         <f ca="1">tm1BudgetVersion</f>
-        <v/>
-      </c>
-      <c r="F18" s="39" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F18" s="39" t="e">
         <f ca="1">"{TM1FILTERBYLEVEL({TM1DRILLDOWNMEMBER({[Lease Variation].["&amp;$E18&amp;"]},ALL,RECURSIVE)},0,1)}"</f>
-        <v>{TM1FILTERBYLEVEL({TM1DRILLDOWNMEMBER({[Lease Variation].[]},ALL,RECURSIVE)},0,1)}</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="30" customFormat="1" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3355,29 +3353,29 @@
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10" t="str">
+      <c r="D22" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C22,D$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="E22" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C22,E$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="F22" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C22,F$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="G22" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C22,G$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="H22" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C22,H$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="I22" s="15" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="15" t="e">
         <f ca="1">_xll.DBRW($D$12,$C22,I$21)</f>
-        <v>*KEY_ERR</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="30" customFormat="1" ht="11.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3386,29 +3384,29 @@
       <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="10" t="str">
+      <c r="D23" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C23,D$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="E23" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C23,E$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="F23" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F23" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C23,F$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="G23" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G23" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C23,G$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="H23" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H23" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C23,H$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="I23" s="15" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I23" s="15" t="e">
         <f ca="1">_xll.DBRW($D$12,$C23,I$21)</f>
-        <v>*KEY_ERR</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="30" customFormat="1" ht="11.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3417,29 +3415,29 @@
       <c r="C24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="10" t="str">
+      <c r="D24" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C24,D$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="E24" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C24,E$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="F24" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C24,F$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="G24" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G24" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C24,G$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="H24" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H24" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C24,H$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="I24" s="15" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I24" s="15" t="e">
         <f ca="1">_xll.DBRW($D$12,$C24,I$21)</f>
-        <v>*KEY_ERR</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="30" customFormat="1" ht="11.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3448,116 +3446,116 @@
       <c r="C25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="10" t="str">
+      <c r="D25" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C25,D$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="E25" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C25,E$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="F25" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F25" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C25,F$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="G25" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G25" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C25,G$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="H25" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H25" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C25,H$21)</f>
-        <v>*KEY_ERR</v>
-      </c>
-      <c r="I25" s="15" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I25" s="15" t="e">
         <f ca="1">_xll.DBRW($D$12,$C25,I$21)</f>
-        <v>*KEY_ERR</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="30" customFormat="1" ht="11.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="29"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="str">
+      <c r="D26" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C26,D$21)</f>
-        <v/>
-      </c>
-      <c r="E26" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C26,E$21)</f>
-        <v/>
-      </c>
-      <c r="F26" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C26,F$21)</f>
-        <v/>
-      </c>
-      <c r="G26" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G26" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C26,G$21)</f>
-        <v/>
-      </c>
-      <c r="H26" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H26" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C26,H$21)</f>
-        <v/>
-      </c>
-      <c r="I26" s="15" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I26" s="15" t="e">
         <f ca="1">_xll.DBRW($D$12,$C26,I$21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="30" customFormat="1" ht="11.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="29"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="str">
+      <c r="D27" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C27,D$21)</f>
-        <v/>
-      </c>
-      <c r="E27" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E27" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C27,E$21)</f>
-        <v/>
-      </c>
-      <c r="F27" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F27" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C27,F$21)</f>
-        <v/>
-      </c>
-      <c r="G27" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G27" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C27,G$21)</f>
-        <v/>
-      </c>
-      <c r="H27" s="10" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H27" s="10" t="e">
         <f ca="1">_xll.DBRW($D$12,$C27,H$21)</f>
-        <v/>
-      </c>
-      <c r="I27" s="15" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I27" s="15" t="e">
         <f ca="1">_xll.DBRW($D$12,$C27,I$21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="30" customFormat="1" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="29"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="12" t="str">
+      <c r="D28" s="12" t="e">
         <f ca="1">_xll.DBRW($D$12,$C28,D$21)</f>
-        <v/>
-      </c>
-      <c r="E28" s="12" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E28" s="12" t="e">
         <f ca="1">_xll.DBRW($D$12,$C28,E$21)</f>
-        <v/>
-      </c>
-      <c r="F28" s="12" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F28" s="12" t="e">
         <f ca="1">_xll.DBRW($D$12,$C28,F$21)</f>
-        <v/>
-      </c>
-      <c r="G28" s="12" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G28" s="12" t="e">
         <f ca="1">_xll.DBRW($D$12,$C28,G$21)</f>
-        <v/>
-      </c>
-      <c r="H28" s="12" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H28" s="12" t="e">
         <f ca="1">_xll.DBRW($D$12,$C28,H$21)</f>
-        <v/>
-      </c>
-      <c r="I28" s="16" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I28" s="16" t="e">
         <f ca="1">_xll.DBRW($D$12,$C28,I$21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -3586,9 +3584,9 @@
       <c r="C34" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="75" t="str">
+      <c r="D34" s="75" t="e">
         <f ca="1">_xll.SUBNM(TM1db&amp;":Year","Default",1)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E34" s="75"/>
       <c r="I34" s="55" t="s">
@@ -3610,9 +3608,9 @@
       <c r="C36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="75" t="str">
+      <c r="D36" s="75" t="e">
         <f ca="1">_xll.SUBNM(TM1db&amp;":Lease Variation","Pick_Budget Version",4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E36" s="75"/>
     </row>
@@ -3628,9 +3626,9 @@
       <c r="C38" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="75" t="str">
+      <c r="D38" s="75" t="e">
         <f ca="1">_xll.SUBNM(TM1db&amp;":Lease Number","Default",1,"Code and Description")</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E38" s="75"/>
       <c r="L38" s="51"/>
@@ -3750,64 +3748,64 @@
       <c r="C44" s="69"/>
     </row>
     <row r="45" spans="1:17" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44">
+      <c r="A45" s="44" t="e">
         <f ca="1">IF(_xll.DTYPE(TM1db&amp;":Lease Variation", tm1BudgetVersion)="N",3,IF(OR(AND(OFFSET(C45,1,0)&lt;&gt;C45,OFFSET(C45,1,0)&lt;&gt;""),OFFSET(C45,1,0)=""),0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="B45" s="45" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="B45" s="45" t="e">
         <f ca="1">_xll.DBRW($D$14,$D45,$C45,$B$42)</f>
-        <v/>
-      </c>
-      <c r="C45" s="68" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="C45" s="68" t="e">
         <f ca="1">_xll.TM1RPTROW($D$14,TM1db&amp;":Lease Number","","","Code and Description",1,$F$17)</f>
-        <v/>
-      </c>
-      <c r="D45" s="60" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="D45" s="60" t="e">
         <f ca="1">_xll.TM1RPTROW($D$14,TM1db&amp;":Lease Variation","","","",1,$F$18,,0)</f>
-        <v/>
-      </c>
-      <c r="E45" s="61" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E45" s="61" t="e">
         <f ca="1">_xll.DBRW($D$9,$D45,$C45,E$42)</f>
-        <v/>
-      </c>
-      <c r="F45" s="61" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F45" s="61" t="e">
         <f ca="1">_xll.DBRW($D$9,$D45,$C45,F$42)</f>
-        <v/>
-      </c>
-      <c r="G45" s="62" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G45" s="62" t="e">
         <f ca="1">_xll.DBRW($D$9,$D45,$C45,G$42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H45" s="49"/>
-      <c r="I45" s="60" t="str">
+      <c r="I45" s="60" t="e">
         <f ca="1">_xll.DBRW($D$10,tm1Year,$D45,tm1LeaseStatus,tm1LeaseType,tm1ReviewType,I$42,$C45,$G$13,"Total")</f>
-        <v/>
-      </c>
-      <c r="J45" s="61" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="J45" s="61" t="e">
         <f ca="1">_xll.DBRW($D$10,tm1Year,$D45,tm1LeaseStatus,tm1LeaseType,tm1ReviewType,J$42,$C45,$G$13,"Total")</f>
-        <v/>
-      </c>
-      <c r="K45" s="62" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="K45" s="62" t="e">
         <f ca="1">_xll.DBRW($D$10,tm1Year,$D45,tm1LeaseStatus,tm1LeaseType,tm1ReviewType,K$42,$C45,$G$13,"Total")</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="L45" s="49"/>
-      <c r="M45" s="60" t="str">
+      <c r="M45" s="60" t="e">
         <f ca="1">_xll.DBRW($D$10,tm1Year,$D45,tm1LeaseStatus,tm1LeaseType,tm1ReviewType,M$42,$C45,$G$13,"Total")</f>
-        <v/>
-      </c>
-      <c r="N45" s="61" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="N45" s="61" t="e">
         <f ca="1">_xll.DBRW($D$10,tm1Year,$D45,tm1LeaseStatus,tm1LeaseType,tm1ReviewType,N$42,$C45,$G$13,"Total")</f>
-        <v/>
-      </c>
-      <c r="O45" s="62" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="O45" s="62" t="e">
         <f ca="1">_xll.DBRW($D$10,tm1Year,$D45,tm1LeaseStatus,tm1LeaseType,tm1ReviewType,O$42,$C45,$G$13,"Total")</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="P45" s="46"/>
-      <c r="Q45" s="66" t="str">
+      <c r="Q45" s="66" t="e">
         <f ca="1">_xll.DBRW($D$10,tm1Year,$D45,tm1LeaseStatus,tm1LeaseType,tm1ReviewType,Q$42,$C45,$G$13,"Total")</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -3815,7 +3813,6 @@
       <c r="D46" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="I40:K40"/>
     <mergeCell ref="M40:O40"/>
@@ -3835,43 +3832,68 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1256" r:id="rId4" name="TIButton9">
+        <control shapeId="1255" r:id="rId4" name="TIButton7">
           <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>295275</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>581025</xdr:rowOff>
+                <xdr:rowOff>400050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1256" r:id="rId4" name="TIButton9"/>
+        <control shapeId="1255" r:id="rId4" name="TIButton7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1231" r:id="rId6" name="TIButton2">
-          <controlPr defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="1254" r:id="rId6" name="TIButton6">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>828675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1254" r:id="rId6" name="TIButton6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1247" r:id="rId8" name="TIButton3">
+          <controlPr defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1657350</xdr:colOff>
+                <xdr:colOff>142875</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>942975</xdr:rowOff>
+                <xdr:rowOff>914400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1628775</xdr:colOff>
                 <xdr:row>30</xdr:row>
                 <xdr:rowOff>1333500</xdr:rowOff>
               </to>
@@ -3880,13 +3902,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1231" r:id="rId6" name="TIButton2"/>
+        <control shapeId="1247" r:id="rId8" name="TIButton3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1239" r:id="rId8" name="TIButton8">
-          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId9">
+        <control shapeId="1239" r:id="rId10" name="TIButton8">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
@@ -3905,82 +3927,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1239" r:id="rId8" name="TIButton8"/>
+        <control shapeId="1239" r:id="rId10" name="TIButton8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1247" r:id="rId10" name="TIButton3">
-          <controlPr defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="1231" r:id="rId12" name="TIButton2">
+          <controlPr defaultSize="0" print="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>1666875</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>971550</xdr:rowOff>
+                <xdr:rowOff>923925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1590675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>1285875</xdr:rowOff>
+                <xdr:rowOff>1314450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1247" r:id="rId10" name="TIButton3"/>
+        <control shapeId="1231" r:id="rId12" name="TIButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1254" r:id="rId12" name="TIButton6">
-          <controlPr defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId13">
+        <control shapeId="1256" r:id="rId14" name="TIButton9">
+          <controlPr defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>809625</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>504825</xdr:rowOff>
+                <xdr:rowOff>247650</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>838200</xdr:rowOff>
+                <xdr:rowOff>619125</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1254" r:id="rId12" name="TIButton6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1255" r:id="rId14" name="TIButton7">
-          <controlPr defaultSize="0" print="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>447675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1255" r:id="rId14" name="TIButton7"/>
+        <control shapeId="1256" r:id="rId14" name="TIButton9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
